--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -991,7 +991,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>Dhaka Tribune - Current &amp; Breaking News Bangladesh &amp; World</t>
+          <t>Board of Intermediate and Secondary Education, Dhaka · 5 Joynag Rd, Dhaka</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>Saturday noun - Definition, pictures, pronunciation and ...</t>
+          <t>7 Days of the Week — Song by The Learning Station</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>TV show</t>
         </is>
       </c>
     </row>
@@ -1035,12 +1035,12 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>Baby Shark Dance | #babyshark Most Viewed Video | Animal ...</t>
+          <t>Song by Justin Bieber and Ludacris</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>Map</t>
+          <t>Baby</t>
         </is>
       </c>
     </row>
@@ -1057,12 +1057,12 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>SCHOOL definition and meaning | Collins English Dictionary</t>
+          <t>school magazine paragraph</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>Map</t>
+          <t>Film</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>ESPNcricinfo: Today's Cricket Match | Cricket Update | Cricket ...</t>
+          <t>International Cricket Council — Sports league</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>Home | cricket.com.au</t>
+          <t>cricket</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>Pathao - #1 Platform in Bangladesh - Ridesharing and More!</t>
+          <t>pathao courier tracking</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>What is an "int" in layman's terms? : r/C_Programming</t>
+          <t>internet download manager</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>INT</t>
+          <t>Soccer club</t>
         </is>
       </c>
     </row>
@@ -1145,12 +1145,12 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>look verb - Definition, pictures, pronunciation and usage ...</t>
+          <t>look meaning in bengali</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>Look Definition &amp; Meaning</t>
+          <t>look</t>
         </is>
       </c>
     </row>
@@ -1167,12 +1167,12 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>HELLO! - Daily royal, celebrity, fashion, beauty &amp; lifestyle ...</t>
+          <t>Song by Noodle &amp; Pals and Super Simple Songs</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Images</t>
+          <t>Band</t>
         </is>
       </c>
     </row>
@@ -1187,14 +1187,14 @@
           <t>By</t>
         </is>
       </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>by preposition - Definition, pictures, pronunciation and ...</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>By Definition &amp; Meaning</t>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>by the way meaning in bengali</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>by</t>
         </is>
       </c>
     </row>
